--- a/fichiers_xls/test_extract_cells_from_all_sheets - after.xlsx
+++ b/fichiers_xls/test_extract_cells_from_all_sheets - after.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22300896" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t xml:space="preserve">4 _9 - 1 _ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22300896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22303499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22302237</t>
   </si>
 </sst>
 </file>
@@ -140,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,6 +162,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +179,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -184,88 +201,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -383,7 +319,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="D4:E4 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -582,238 +518,207 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="D4:E4 C9"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>9003</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>11301</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <v>4477</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <v>4313</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="D5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4" t="n">
         <v>10197</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>16577</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="B7" s="4" t="n">
+        <v>5398</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>22303499</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>4209</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>5398</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <v>3195</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>22303499</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>22300896</formula>
     </cfRule>
   </conditionalFormatting>
@@ -832,108 +737,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D4:E4 C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>22302237</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>4574</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>22302237</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>7308</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>22302237</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
+        <v>7308</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>7308</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7308</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>4518</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>22302237</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <v>5067</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>22302237</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>22303499</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>22300896</formula>
     </cfRule>
   </conditionalFormatting>
@@ -957,17 +913,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>22300896</v>
+      <c r="A2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -983,8 +940,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>22303499</v>
+      <c r="A3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1000,8 +957,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>22302237</v>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
